--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
@@ -435,13 +435,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1151.160658708769</v>
+        <v>1151.160628614699</v>
       </c>
       <c r="C2">
-        <v>57.03346802493895</v>
+        <v>57.03207645400192</v>
       </c>
       <c r="D2">
-        <v>26.54027290352408</v>
+        <v>26.53914008503181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1150.591829546954</v>
+        <v>1150.591821628105</v>
       </c>
       <c r="C3">
-        <v>81.86542084862646</v>
+        <v>81.86647235194745</v>
       </c>
       <c r="D3">
-        <v>56.15004099784152</v>
+        <v>56.15125332450955</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1150.614039999566</v>
+        <v>1150.6140395787</v>
       </c>
       <c r="C6">
-        <v>1181.442086529785</v>
+        <v>1181.443615617801</v>
       </c>
       <c r="D6">
-        <v>738.9198264497767</v>
+        <v>738.9205718574589</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1150.609705300957</v>
+        <v>1150.609704419648</v>
       </c>
       <c r="C7">
-        <v>840.5411908035653</v>
+        <v>840.5437666624427</v>
       </c>
       <c r="D7">
-        <v>506.839405664233</v>
+        <v>506.8418187530316</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1150.57139130514</v>
+        <v>1150.571391722088</v>
       </c>
       <c r="C9">
-        <v>1175.368987069504</v>
+        <v>1175.367254762808</v>
       </c>
       <c r="D9">
-        <v>735.4809374472812</v>
+        <v>735.4790088280787</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1150.596746387807</v>
+        <v>1150.59674605049</v>
       </c>
       <c r="C10">
-        <v>119.2157097840018</v>
+        <v>119.2150025282581</v>
       </c>
       <c r="D10">
-        <v>74.24500382927332</v>
+        <v>74.24444166219189</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
@@ -435,13 +435,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1151.160628614699</v>
+        <v>1151.160126426616</v>
       </c>
       <c r="C2">
-        <v>57.03207645400192</v>
+        <v>55.5762277319274</v>
       </c>
       <c r="D2">
-        <v>26.53914008503181</v>
+        <v>26.19545941933148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1150.591821628105</v>
+        <v>1150.607814272824</v>
       </c>
       <c r="C3">
-        <v>81.86647235194745</v>
+        <v>75.65668064408545</v>
       </c>
       <c r="D3">
-        <v>56.15125332450955</v>
+        <v>54.37831380276303</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1150.651543262938</v>
+        <v>1150.65918054404</v>
       </c>
       <c r="C4">
-        <v>690.3475465950435</v>
+        <v>645.470942788454</v>
       </c>
       <c r="D4">
-        <v>437.7999642504185</v>
+        <v>432.7812345022195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1150.642810859376</v>
+        <v>1150.648215614395</v>
       </c>
       <c r="C5">
-        <v>374.1557310767413</v>
+        <v>359.0363137542182</v>
       </c>
       <c r="D5">
-        <v>235.8833361782845</v>
+        <v>233.9499953839853</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1150.6140395787</v>
+        <v>1150.622331832785</v>
       </c>
       <c r="C6">
-        <v>1181.443615617801</v>
+        <v>1121.728413380102</v>
       </c>
       <c r="D6">
-        <v>738.9205718574589</v>
+        <v>727.7326777802815</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1150.609704419648</v>
+        <v>1150.620833588373</v>
       </c>
       <c r="C7">
-        <v>840.5437666624427</v>
+        <v>781.5099153585764</v>
       </c>
       <c r="D7">
-        <v>506.8418187530316</v>
+        <v>496.1253298637891</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1150.592608621317</v>
+        <v>1150.601837921057</v>
       </c>
       <c r="C8">
-        <v>656.5915927411691</v>
+        <v>622.6045691208002</v>
       </c>
       <c r="D8">
-        <v>404.7334453723748</v>
+        <v>396.5477527483168</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1150.571391722088</v>
+        <v>1150.581569008737</v>
       </c>
       <c r="C9">
-        <v>1175.367254762808</v>
+        <v>1114.461012785161</v>
       </c>
       <c r="D9">
-        <v>735.4790088280787</v>
+        <v>717.1303478810305</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1150.59674605049</v>
+        <v>1150.601624386216</v>
       </c>
       <c r="C10">
-        <v>119.2150025282581</v>
+        <v>116.5589603381525</v>
       </c>
       <c r="D10">
-        <v>74.24444166219189</v>
+        <v>73.53203131267618</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>filename</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Peak_Height_SO2</t>
   </si>
   <si>
-    <t>K21-59-FI#1.txt</t>
+    <t>Model_name</t>
   </si>
   <si>
     <t>K21-63-FI#1.txt</t>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>K21-64-FI#8.txt</t>
+  </si>
+  <si>
+    <t>Spline</t>
   </si>
 </sst>
 </file>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,131 +432,144 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1151.160126426616</v>
+        <v>1150.651590024024</v>
       </c>
       <c r="C2">
-        <v>55.5762277319274</v>
+        <v>74.09976227610574</v>
       </c>
       <c r="D2">
-        <v>26.19545941933148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>53.03883733718499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>1150.607814272824</v>
+        <v>1150.68108738038</v>
       </c>
       <c r="C3">
-        <v>75.65668064408545</v>
+        <v>623.9833579728074</v>
       </c>
       <c r="D3">
-        <v>54.37831380276303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>433.1186410363725</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1150.65918054404</v>
+        <v>1150.68108738038</v>
       </c>
       <c r="C4">
-        <v>645.470942788454</v>
+        <v>342.3364395936616</v>
       </c>
       <c r="D4">
-        <v>432.7812345022195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>232.5738174981157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1150.648215614395</v>
+        <v>1150.651590024024</v>
       </c>
       <c r="C5">
-        <v>359.0363137542182</v>
+        <v>1075.73310089545</v>
       </c>
       <c r="D5">
-        <v>233.9499953839853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>718.8957194806073</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1150.622331832785</v>
+        <v>1150.651590024024</v>
       </c>
       <c r="C6">
-        <v>1121.728413380102</v>
+        <v>764.715577576772</v>
       </c>
       <c r="D6">
-        <v>727.7326777802815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>491.4817423352409</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1150.620833588373</v>
+        <v>1150.651590024024</v>
       </c>
       <c r="C7">
-        <v>781.5099153585764</v>
+        <v>596.5268255846815</v>
       </c>
       <c r="D7">
-        <v>496.1253298637891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>388.5546741594674</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1150.601837921057</v>
+        <v>1150.622092667668</v>
       </c>
       <c r="C8">
-        <v>622.6045691208002</v>
+        <v>1072.471997915728</v>
       </c>
       <c r="D8">
-        <v>396.5477527483168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>694.9993577365151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>1150.581569008737</v>
+        <v>1150.622092667668</v>
       </c>
       <c r="C9">
-        <v>1114.461012785161</v>
+        <v>108.2799309430276</v>
       </c>
       <c r="D9">
-        <v>717.1303478810305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1150.601624386216</v>
-      </c>
-      <c r="C10">
-        <v>116.5589603381525</v>
-      </c>
-      <c r="D10">
-        <v>73.53203131267618</v>
+        <v>71.52269015991374</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>filename</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Model_name</t>
+  </si>
+  <si>
+    <t>K21-59-FI#1.txt</t>
   </si>
   <si>
     <t>K21-63-FI#1.txt</t>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,16 +444,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1150.651590024024</v>
+        <v>1151.271034507507</v>
       </c>
       <c r="C2">
-        <v>74.09976227610574</v>
+        <v>49.79430471549424</v>
       </c>
       <c r="D2">
-        <v>53.03883733718499</v>
+        <v>26.99710352365537</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,16 +461,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1150.68108738038</v>
+        <v>1150.651590024024</v>
       </c>
       <c r="C3">
-        <v>623.9833579728074</v>
+        <v>74.09976227610574</v>
       </c>
       <c r="D3">
-        <v>433.1186410363725</v>
+        <v>53.03883733718499</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,13 +481,13 @@
         <v>1150.68108738038</v>
       </c>
       <c r="C4">
-        <v>342.3364395936616</v>
+        <v>623.9833579728074</v>
       </c>
       <c r="D4">
-        <v>232.5738174981157</v>
+        <v>433.1186410363725</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -492,16 +495,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1150.651590024024</v>
+        <v>1150.68108738038</v>
       </c>
       <c r="C5">
-        <v>1075.73310089545</v>
+        <v>342.3364395936616</v>
       </c>
       <c r="D5">
-        <v>718.8957194806073</v>
+        <v>232.5738174981157</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,13 +515,13 @@
         <v>1150.651590024024</v>
       </c>
       <c r="C6">
-        <v>764.715577576772</v>
+        <v>1075.73310089545</v>
       </c>
       <c r="D6">
-        <v>491.4817423352409</v>
+        <v>718.8957194806073</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,13 +532,13 @@
         <v>1150.651590024024</v>
       </c>
       <c r="C7">
-        <v>596.5268255846815</v>
+        <v>764.715577576772</v>
       </c>
       <c r="D7">
-        <v>388.5546741594674</v>
+        <v>491.4817423352409</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -543,16 +546,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1150.622092667668</v>
+        <v>1150.651590024024</v>
       </c>
       <c r="C8">
-        <v>1072.471997915728</v>
+        <v>596.5268255846815</v>
       </c>
       <c r="D8">
-        <v>694.9993577365151</v>
+        <v>388.5546741594674</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,13 +566,30 @@
         <v>1150.622092667668</v>
       </c>
       <c r="C9">
+        <v>1072.471997915728</v>
+      </c>
+      <c r="D9">
+        <v>694.9993577365151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1150.622092667668</v>
+      </c>
+      <c r="C10">
         <v>108.2799309430276</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>71.52269015991374</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>Peak_Cent_SO2</t>
-  </si>
-  <si>
-    <t>Peak_Area_SO2</t>
-  </si>
-  <si>
-    <t>Peak_Height_SO2</t>
-  </si>
-  <si>
-    <t>Model_name</t>
-  </si>
-  <si>
-    <t>K21-59-FI#1.txt</t>
-  </si>
-  <si>
-    <t>K21-63-FI#1.txt</t>
-  </si>
-  <si>
-    <t>K21-64-FI#1.txt</t>
-  </si>
-  <si>
-    <t>K21-64-FI#2.txt</t>
-  </si>
-  <si>
-    <t>K21-64-FI#3.txt</t>
-  </si>
-  <si>
-    <t>K21-64-FI#5.txt</t>
-  </si>
-  <si>
-    <t>K21-64-FI#6.txt</t>
-  </si>
-  <si>
-    <t>K21-64-FI#7.txt</t>
-  </si>
-  <si>
-    <t>K21-64-FI#8.txt</t>
-  </si>
-  <si>
-    <t>Spline</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,184 +420,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_Cent_SO2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_Area_SO2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Peak_Height_SO2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Model_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>K21-59-FI#1.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1151.271034507507</v>
       </c>
-      <c r="C2">
-        <v>49.79430471549424</v>
-      </c>
-      <c r="D2">
-        <v>26.99710352365537</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="C2" t="n">
+        <v>49.79430471549784</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.99710352365582</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>K21-63-FI#1.txt</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1150.651590024024</v>
       </c>
-      <c r="C3">
-        <v>74.09976227610574</v>
-      </c>
-      <c r="D3">
-        <v>53.03883733718499</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="C3" t="n">
+        <v>74.09976227610956</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.03883733718567</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>K21-64-FI#1.txt</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1150.68108738038</v>
       </c>
-      <c r="C4">
-        <v>623.9833579728074</v>
-      </c>
-      <c r="D4">
-        <v>433.1186410363725</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="n">
+        <v>623.9833579728091</v>
+      </c>
+      <c r="D4" t="n">
+        <v>433.1186410363728</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>K21-64-FI#2.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1150.68108738038</v>
       </c>
-      <c r="C5">
-        <v>342.3364395936616</v>
-      </c>
-      <c r="D5">
-        <v>232.5738174981157</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="C5" t="n">
+        <v>342.3364395936627</v>
+      </c>
+      <c r="D5" t="n">
+        <v>232.5738174981158</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>K21-64-FI#3.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1150.651590024024</v>
       </c>
-      <c r="C6">
-        <v>1075.73310089545</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>1075.733100895451</v>
+      </c>
+      <c r="D6" t="n">
         <v>718.8957194806073</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>K21-64-FI#5.txt</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1150.651590024024</v>
       </c>
-      <c r="C7">
-        <v>764.715577576772</v>
-      </c>
-      <c r="D7">
-        <v>491.4817423352409</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
+      <c r="C7" t="n">
+        <v>764.715577576774</v>
+      </c>
+      <c r="D7" t="n">
+        <v>491.4817423352413</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>K21-64-FI#6.txt</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1150.651590024024</v>
       </c>
-      <c r="C8">
-        <v>596.5268255846815</v>
-      </c>
-      <c r="D8">
-        <v>388.5546741594674</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+      <c r="C8" t="n">
+        <v>596.5268255846842</v>
+      </c>
+      <c r="D8" t="n">
+        <v>388.5546741594678</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>K21-64-FI#7.txt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>1150.622092667668</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>1072.471997915728</v>
       </c>
-      <c r="D9">
-        <v>694.9993577365151</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
+      <c r="D9" t="n">
+        <v>694.9993577365152</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>K21-64-FI#8.txt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1150.622092667668</v>
       </c>
-      <c r="C10">
-        <v>108.2799309430276</v>
-      </c>
-      <c r="D10">
-        <v>71.52269015991374</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+      <c r="C10" t="n">
+        <v>108.2799309430302</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71.52269015991408</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Spline</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>K21-59-FI#1.txt</t>
+          <t>02 K23_10_FIA_50X.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1151.271034507507</v>
+        <v>1150.799076805806</v>
       </c>
       <c r="C2" t="n">
-        <v>49.79430471549784</v>
+        <v>547.5551415582706</v>
       </c>
       <c r="D2" t="n">
-        <v>26.99710352365582</v>
+        <v>401.4956768160507</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -484,17 +484,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>K21-63-FI#1.txt</t>
+          <t>08 K23_2_FIA_50X.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1150.651590024024</v>
+        <v>1151.683997496496</v>
       </c>
       <c r="C3" t="n">
-        <v>74.09976227610956</v>
+        <v>41.78971752359785</v>
       </c>
       <c r="D3" t="n">
-        <v>53.03883733718567</v>
+        <v>25.9282118822</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -505,17 +505,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K21-64-FI#1.txt</t>
+          <t>09 K23_2_FIB_50X.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1150.68108738038</v>
+        <v>1151.182542438439</v>
       </c>
       <c r="C4" t="n">
-        <v>623.9833579728091</v>
+        <v>176.5086366792257</v>
       </c>
       <c r="D4" t="n">
-        <v>433.1186410363728</v>
+        <v>121.9862880887559</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -526,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K21-64-FI#2.txt</t>
+          <t>16 K23_6_FIA_50X.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1150.68108738038</v>
+        <v>1150.917066231231</v>
       </c>
       <c r="C5" t="n">
-        <v>342.3364395936627</v>
+        <v>69.57609552145854</v>
       </c>
       <c r="D5" t="n">
-        <v>232.5738174981158</v>
+        <v>49.68469369621323</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K21-64-FI#3.txt</t>
+          <t>17 K23_7_FIA_50X.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150.651590024024</v>
+        <v>1150.769579449449</v>
       </c>
       <c r="C6" t="n">
-        <v>1075.733100895451</v>
+        <v>1171.900770000038</v>
       </c>
       <c r="D6" t="n">
-        <v>718.8957194806073</v>
+        <v>847.6919894156773</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K21-64-FI#5.txt</t>
+          <t>19 K23_7_FIB_50X.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1150.651590024024</v>
+        <v>1150.828574162162</v>
       </c>
       <c r="C7" t="n">
-        <v>764.715577576774</v>
+        <v>330.0877917390737</v>
       </c>
       <c r="D7" t="n">
-        <v>491.4817423352413</v>
+        <v>238.2441265229412</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -589,17 +589,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>K21-64-FI#6.txt</t>
+          <t>20 K23_7_FIC_50X.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1150.651590024024</v>
+        <v>1150.769579449449</v>
       </c>
       <c r="C8" t="n">
-        <v>596.5268255846842</v>
+        <v>308.4355593728184</v>
       </c>
       <c r="D8" t="n">
-        <v>388.5546741594678</v>
+        <v>220.9849404097855</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -610,40 +610,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K21-64-FI#7.txt</t>
+          <t>23 K23_101_FID_50X.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1150.622092667668</v>
+        <v>1151.0055583003</v>
       </c>
       <c r="C9" t="n">
-        <v>1072.471997915728</v>
+        <v>88.15764607835709</v>
       </c>
       <c r="D9" t="n">
-        <v>694.9993577365152</v>
+        <v>62.87890665466512</v>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>Spline</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>K21-64-FI#8.txt</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1150.622092667668</v>
-      </c>
-      <c r="C10" t="n">
-        <v>108.2799309430302</v>
-      </c>
-      <c r="D10" t="n">
-        <v>71.52269015991408</v>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>Spline</t>
         </is>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/SO2_Peak_fits.xlsx
@@ -470,7 +470,7 @@
         <v>1150.799076805806</v>
       </c>
       <c r="C2" t="n">
-        <v>547.5551415582706</v>
+        <v>556.8820601375211</v>
       </c>
       <c r="D2" t="n">
         <v>401.4956768160507</v>
@@ -491,7 +491,7 @@
         <v>1151.683997496496</v>
       </c>
       <c r="C3" t="n">
-        <v>41.78971752359785</v>
+        <v>45.47286828470842</v>
       </c>
       <c r="D3" t="n">
         <v>25.9282118822</v>
@@ -512,7 +512,7 @@
         <v>1151.182542438439</v>
       </c>
       <c r="C4" t="n">
-        <v>176.5086366792257</v>
+        <v>180.0007210602771</v>
       </c>
       <c r="D4" t="n">
         <v>121.9862880887559</v>
@@ -533,7 +533,7 @@
         <v>1150.917066231231</v>
       </c>
       <c r="C5" t="n">
-        <v>69.57609552145854</v>
+        <v>70.08344443838996</v>
       </c>
       <c r="D5" t="n">
         <v>49.68469369621323</v>
@@ -554,7 +554,7 @@
         <v>1150.769579449449</v>
       </c>
       <c r="C6" t="n">
-        <v>1171.900770000038</v>
+        <v>1193.886885480184</v>
       </c>
       <c r="D6" t="n">
         <v>847.6919894156773</v>
@@ -575,7 +575,7 @@
         <v>1150.828574162162</v>
       </c>
       <c r="C7" t="n">
-        <v>330.0877917390737</v>
+        <v>336.8006864955747</v>
       </c>
       <c r="D7" t="n">
         <v>238.2441265229412</v>
@@ -596,7 +596,7 @@
         <v>1150.769579449449</v>
       </c>
       <c r="C8" t="n">
-        <v>308.4355593728184</v>
+        <v>361.1135807444104</v>
       </c>
       <c r="D8" t="n">
         <v>220.9849404097855</v>
@@ -617,7 +617,7 @@
         <v>1151.0055583003</v>
       </c>
       <c r="C9" t="n">
-        <v>88.15764607835709</v>
+        <v>88.45279340605903</v>
       </c>
       <c r="D9" t="n">
         <v>62.87890665466512</v>
